--- a/data/trans_dic/P43E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43E_R-Edad-trans_dic.xlsx
@@ -590,7 +590,7 @@
         <v>0.843480986021741</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6752818653682886</v>
+        <v>0.6752818653682885</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7067350350016789</v>
+        <v>0.7217503288269759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7753303105984756</v>
+        <v>0.773498911255495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4816114016808106</v>
+        <v>0.4825128852755552</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.842799078771163</v>
+        <v>0.8444914293508621</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8926027803182912</v>
+        <v>0.8915388442782146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8375001919989884</v>
+        <v>0.8307261542564871</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6850092280135095</v>
+        <v>0.6863178738263098</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7507116369521458</v>
+        <v>0.7493889126883485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6616614052217773</v>
+        <v>0.6635622207618683</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7742373017631753</v>
+        <v>0.7711946209976124</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8349333796545632</v>
+        <v>0.8328501245214678</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7974521250932386</v>
+        <v>0.8021082068272135</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.8000362033453867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7246242499763047</v>
+        <v>0.7246242499763046</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7004197267850715</v>
+        <v>0.7018616717167194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7606638237161443</v>
+        <v>0.7641849183572865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6735874515391107</v>
+        <v>0.676585213946607</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7730117335251496</v>
+        <v>0.7786588024713682</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.835096002043037</v>
+        <v>0.8337469155269512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7690120468152505</v>
+        <v>0.7677400557192258</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8479348415320582</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6902459760275599</v>
+        <v>0.6902459760275598</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7082114158227595</v>
+        <v>0.7158800074783472</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8111650151941768</v>
+        <v>0.8064462083094021</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6540315180344513</v>
+        <v>0.6478096145072582</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7923421837384511</v>
+        <v>0.7986706378966999</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.880037388592227</v>
+        <v>0.8767593092412411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7295925696321452</v>
+        <v>0.7251306094623664</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7679426410938912</v>
+        <v>0.7583199156197847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8173946514273807</v>
+        <v>0.8163790386506078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7391287547818334</v>
+        <v>0.7408945726097271</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.85587482711454</v>
+        <v>0.8557946359140153</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9014360930480353</v>
+        <v>0.8980225730077693</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8118992867089766</v>
+        <v>0.812706340127891</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>0.8755172830811279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8270615120718973</v>
+        <v>0.8270615120718972</v>
       </c>
     </row>
     <row r="20">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8118201600672914</v>
+        <v>0.8112526942601129</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8181450762862216</v>
+        <v>0.8205525661663179</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7873632800174223</v>
+        <v>0.7834566616842541</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9189599992353947</v>
+        <v>0.9221627584224841</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9185968922940776</v>
+        <v>0.9190256854689838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8648138615317857</v>
+        <v>0.8586982731638467</v>
       </c>
     </row>
     <row r="22">
@@ -920,7 +920,7 @@
         <v>0.9182415978245849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8608288791530336</v>
+        <v>0.8608288791530335</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7716782548812109</v>
+        <v>0.7650069237319799</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8430969550938845</v>
+        <v>0.8426375371726856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8192352990658642</v>
+        <v>0.8181313126768242</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9214259454397866</v>
+        <v>0.9160017319183659</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9649911459253149</v>
+        <v>0.9620239431500557</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.899373198830416</v>
+        <v>0.8955617446910383</v>
       </c>
     </row>
     <row r="25">
@@ -975,7 +975,7 @@
         <v>0.8360761465892808</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.7544571578083872</v>
+        <v>0.7544571578083874</v>
       </c>
     </row>
     <row r="26">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7506596909798154</v>
+        <v>0.7513167033043509</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8182760564829431</v>
+        <v>0.8193256852691897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.736110788253831</v>
+        <v>0.7363259154922155</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.789450104007539</v>
+        <v>0.7874592081201731</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.851420511165801</v>
+        <v>0.8525095483326741</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7718590144297249</v>
+        <v>0.7718090527775079</v>
       </c>
     </row>
     <row r="28">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>117610</v>
+        <v>120109</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>124176</v>
+        <v>123883</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23081</v>
+        <v>23124</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>140253</v>
+        <v>140534</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>142958</v>
+        <v>142788</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40137</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="8">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>302331</v>
+        <v>302908</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>275893</v>
+        <v>275407</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>126737</v>
+        <v>127101</v>
       </c>
     </row>
     <row r="11">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>341712</v>
+        <v>340369</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>306846</v>
+        <v>306080</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>152747</v>
+        <v>153639</v>
       </c>
     </row>
     <row r="12">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>398490</v>
+        <v>399310</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>381068</v>
+        <v>382832</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>195212</v>
+        <v>196080</v>
       </c>
     </row>
     <row r="15">
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>439790</v>
+        <v>443002</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>418356</v>
+        <v>417681</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>222867</v>
+        <v>222498</v>
       </c>
     </row>
     <row r="16">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>341774</v>
+        <v>345474</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>383050</v>
+        <v>380822</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>249057</v>
+        <v>246688</v>
       </c>
     </row>
     <row r="19">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>382374</v>
+        <v>385428</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>415573</v>
+        <v>414025</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>277831</v>
+        <v>276132</v>
       </c>
     </row>
     <row r="20">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>238129</v>
+        <v>235145</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>262243</v>
+        <v>261917</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>232161</v>
+        <v>232716</v>
       </c>
     </row>
     <row r="23">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>265396</v>
+        <v>265371</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>289206</v>
+        <v>288111</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>255018</v>
+        <v>255272</v>
       </c>
     </row>
     <row r="24">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>144510</v>
+        <v>144409</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>165439</v>
+        <v>165926</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>169835</v>
+        <v>168992</v>
       </c>
     </row>
     <row r="27">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>163582</v>
+        <v>164152</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>185751</v>
+        <v>185838</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>186541</v>
+        <v>185222</v>
       </c>
     </row>
     <row r="28">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>78439</v>
+        <v>77761</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>109415</v>
+        <v>109355</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>138967</v>
+        <v>138780</v>
       </c>
     </row>
     <row r="31">
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>93660</v>
+        <v>93109</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>125234</v>
+        <v>124849</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>152561</v>
+        <v>151914</v>
       </c>
     </row>
     <row r="32">
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1688252</v>
+        <v>1689730</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1762300</v>
+        <v>1764560</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1184780</v>
+        <v>1185126</v>
       </c>
     </row>
     <row r="35">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1775493</v>
+        <v>1771015</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1833682</v>
+        <v>1836028</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1242317</v>
+        <v>1242237</v>
       </c>
     </row>
     <row r="36">
